--- a/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Future.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Future.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\ERASMUS\ERASMUS_GTK\Future_KA226_HE_095164\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5645AFB0-041B-4E16-8603-01D8F6F93776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C6B672-F998-498E-BA07-0C99470AF583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="177">
   <si>
     <t>résztvevő</t>
   </si>
@@ -420,9 +420,6 @@
   </si>
   <si>
     <t>különbsége</t>
-  </si>
-  <si>
-    <t>okmány</t>
   </si>
   <si>
     <t>Kinevezés</t>
@@ -2804,11 +2801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y175"/>
+  <dimension ref="A1:X175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2834,35 +2831,35 @@
     <col min="24" max="24" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T1" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="U1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="T1" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="169"/>
       <c r="C2" s="169"/>
@@ -2887,14 +2884,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
       <c r="D3" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>24</v>
@@ -2908,10 +2905,10 @@
         <v>26</v>
       </c>
       <c r="J3" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="83" t="s">
         <v>62</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>63</v>
       </c>
       <c r="L3" s="83"/>
       <c r="M3" s="83"/>
@@ -2921,11 +2918,11 @@
         <v>27</v>
       </c>
       <c r="Q3" s="136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" s="128"/>
       <c r="S3" s="83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T3" s="83"/>
       <c r="U3" s="110"/>
@@ -2933,7 +2930,7 @@
       <c r="W3" s="152"/>
       <c r="X3" s="152"/>
     </row>
-    <row r="4" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
         <v>28</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="77" t="s">
         <v>29</v>
@@ -2956,7 +2953,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="87" t="s">
         <v>31</v>
@@ -2974,7 +2971,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="89" t="s">
         <v>3</v>
@@ -2983,29 +2980,29 @@
         <v>33</v>
       </c>
       <c r="Q4" s="137" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R4" s="129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S4" s="88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4" s="88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U4" s="111"/>
       <c r="V4" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="W4" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="W4" s="153" t="s">
+      <c r="X4" s="153" t="s">
         <v>161</v>
       </c>
-      <c r="X4" s="153" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="s">
         <v>34</v>
       </c>
@@ -3014,7 +3011,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="78" t="s">
         <v>36</v>
@@ -3024,7 +3021,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5" s="93" t="s">
         <v>38</v>
@@ -3038,36 +3035,34 @@
         <v>40</v>
       </c>
       <c r="N5" s="93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="96" t="s">
         <v>41</v>
       </c>
       <c r="Q5" s="138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R5" s="130"/>
       <c r="S5" s="94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T5" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="U5" s="112" t="s">
-        <v>42</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="U5" s="112"/>
       <c r="V5" s="154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W5" s="154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X5" s="154" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -3110,21 +3105,21 @@
       <c r="T6" s="105"/>
       <c r="U6" s="22"/>
     </row>
-    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
@@ -3172,28 +3167,26 @@
         <v>44552</v>
       </c>
       <c r="S7" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T7" s="105"/>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
@@ -3242,28 +3235,26 @@
         <v>44599</v>
       </c>
       <c r="S8" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T8" s="105"/>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T8" s="105"/>
-      <c r="U8" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>11</v>
@@ -3311,28 +3302,26 @@
         <v>44599</v>
       </c>
       <c r="S9" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" s="105"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T9" s="105"/>
-      <c r="U9" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
@@ -3380,28 +3369,26 @@
         <v>44599</v>
       </c>
       <c r="S10" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" s="105"/>
+      <c r="U10" s="113"/>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="105"/>
-      <c r="U10" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>11</v>
@@ -3450,28 +3437,26 @@
         <v>44686</v>
       </c>
       <c r="S11" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="105"/>
+      <c r="U11" s="113"/>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="105"/>
-      <c r="U11" s="113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>11</v>
@@ -3520,28 +3505,26 @@
         <v>44686</v>
       </c>
       <c r="S12" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T12" s="105"/>
+      <c r="U12" s="113"/>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="105"/>
-      <c r="U12" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>11</v>
@@ -3589,28 +3572,26 @@
         <v>44728</v>
       </c>
       <c r="S13" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T13" s="105"/>
+      <c r="U13" s="113"/>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T13" s="105"/>
-      <c r="U13" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>11</v>
@@ -3658,28 +3639,26 @@
         <v>44728</v>
       </c>
       <c r="S14" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T14" s="105"/>
+      <c r="U14" s="113"/>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T14" s="105"/>
-      <c r="U14" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
@@ -3727,28 +3706,26 @@
         <v>44728</v>
       </c>
       <c r="S15" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="T15" s="105"/>
+      <c r="U15" s="113"/>
+    </row>
+    <row r="16" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="105"/>
-      <c r="U15" s="113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
@@ -3796,28 +3773,26 @@
         <v>44728</v>
       </c>
       <c r="S16" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T16" s="105"/>
-      <c r="U16" s="113">
-        <v>1</v>
-      </c>
+      <c r="U16" s="113"/>
     </row>
     <row r="17" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
@@ -3864,14 +3839,12 @@
         <v>44728</v>
       </c>
       <c r="S17" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T17" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="U17" s="113">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="U17" s="113"/>
       <c r="V17" s="151" t="e">
         <v>#N/A</v>
       </c>
@@ -3884,19 +3857,19 @@
     </row>
     <row r="18" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>11</v>
@@ -3945,39 +3918,37 @@
         <v>44728</v>
       </c>
       <c r="S18" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T18" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="U18" s="113">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="U18" s="113"/>
       <c r="V18" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="W18" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="W18" s="151" t="s">
-        <v>172</v>
-      </c>
       <c r="X18" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>11</v>
@@ -4025,16 +3996,14 @@
         <v>44936</v>
       </c>
       <c r="S19" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T19" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="U19" s="113">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="U19" s="113"/>
       <c r="V19" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W19" s="12">
         <v>0</v>
@@ -4045,19 +4014,19 @@
     </row>
     <row r="20" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>11</v>
@@ -4105,14 +4074,12 @@
         <v>44936</v>
       </c>
       <c r="S20" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T20" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="U20" s="113">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="U20" s="113"/>
       <c r="V20" s="12" t="str">
         <f>IF(VLOOKUP($T20,'Havi béradatok'!$B:$E,2,FALSE)=E20,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -4128,19 +4095,19 @@
     </row>
     <row r="21" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>11</v>
@@ -4188,28 +4155,26 @@
         <v>44564</v>
       </c>
       <c r="S21" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T21" s="105"/>
-      <c r="U21" s="22">
-        <v>2</v>
-      </c>
+      <c r="U21" s="22"/>
     </row>
     <row r="22" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>11</v>
@@ -4257,28 +4222,26 @@
         <v>44599</v>
       </c>
       <c r="S22" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T22" s="105"/>
-      <c r="U22" s="22">
-        <v>2</v>
-      </c>
+      <c r="U22" s="22"/>
     </row>
     <row r="23" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>11</v>
@@ -4326,28 +4289,26 @@
         <v>44616</v>
       </c>
       <c r="S23" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T23" s="105"/>
-      <c r="U23" s="22">
-        <v>4</v>
-      </c>
+      <c r="U23" s="22"/>
     </row>
     <row r="24" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>11</v>
@@ -4395,28 +4356,26 @@
         <v>44616</v>
       </c>
       <c r="S24" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T24" s="105"/>
-      <c r="U24" s="113">
-        <v>2</v>
-      </c>
+      <c r="U24" s="113"/>
     </row>
     <row r="25" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
@@ -4464,28 +4423,26 @@
         <v>44616</v>
       </c>
       <c r="S25" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T25" s="105"/>
-      <c r="U25" s="113">
-        <v>4</v>
-      </c>
+      <c r="U25" s="113"/>
     </row>
     <row r="26" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>11</v>
@@ -4533,28 +4490,26 @@
         <v>44725</v>
       </c>
       <c r="S26" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T26" s="105"/>
-      <c r="U26" s="113">
-        <v>2</v>
-      </c>
+      <c r="U26" s="113"/>
     </row>
     <row r="27" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>11</v>
@@ -4602,28 +4557,26 @@
         <v>44741</v>
       </c>
       <c r="S27" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T27" s="105"/>
-      <c r="U27" s="113">
-        <v>2</v>
-      </c>
+      <c r="U27" s="113"/>
     </row>
     <row r="28" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>11</v>
@@ -4671,28 +4624,26 @@
         <v>44741</v>
       </c>
       <c r="S28" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T28" s="105"/>
-      <c r="U28" s="113">
-        <v>2</v>
-      </c>
+      <c r="U28" s="113"/>
     </row>
     <row r="29" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>11</v>
@@ -4741,28 +4692,26 @@
         <v>44788</v>
       </c>
       <c r="S29" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T29" s="105"/>
-      <c r="U29" s="113">
-        <v>2</v>
-      </c>
+      <c r="U29" s="113"/>
     </row>
     <row r="30" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>11</v>
@@ -4811,28 +4760,26 @@
         <v>44788</v>
       </c>
       <c r="S30" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T30" s="105"/>
-      <c r="U30" s="113">
-        <v>1</v>
-      </c>
+      <c r="U30" s="113"/>
     </row>
     <row r="31" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>11</v>
@@ -4881,14 +4828,12 @@
         <v>44788</v>
       </c>
       <c r="S31" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T31" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="U31" s="113">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="U31" s="113"/>
       <c r="V31" s="151" t="e">
         <v>#N/A</v>
       </c>
@@ -4901,19 +4846,19 @@
     </row>
     <row r="32" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>11</v>
@@ -4961,39 +4906,37 @@
         <v>44880</v>
       </c>
       <c r="S32" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T32" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="U32" s="113">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="U32" s="113"/>
       <c r="V32" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="W32" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="W32" s="151" t="s">
-        <v>172</v>
-      </c>
       <c r="X32" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>11</v>
@@ -5041,16 +4984,14 @@
         <v>44932</v>
       </c>
       <c r="S33" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T33" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="U33" s="113">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="U33" s="113"/>
       <c r="V33" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W33" s="12">
         <v>0</v>
@@ -5061,19 +5002,19 @@
     </row>
     <row r="34" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>11</v>
@@ -5121,14 +5062,12 @@
         <v>44932</v>
       </c>
       <c r="S34" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T34" s="105" t="s">
-        <v>156</v>
-      </c>
-      <c r="U34" s="113">
-        <v>1</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="U34" s="113"/>
       <c r="V34" s="12" t="str">
         <f>IF(VLOOKUP($T34,'Havi béradatok'!$B:$E,2,FALSE)=E34,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5144,19 +5083,19 @@
     </row>
     <row r="35" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>11</v>
@@ -5205,28 +5144,26 @@
         <v>44481</v>
       </c>
       <c r="S35" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T35" s="105"/>
-      <c r="U35" s="113">
-        <v>2</v>
-      </c>
+      <c r="U35" s="113"/>
     </row>
     <row r="36" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>11</v>
@@ -5275,28 +5212,26 @@
         <v>44502</v>
       </c>
       <c r="S36" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T36" s="105"/>
-      <c r="U36" s="113">
-        <v>2</v>
-      </c>
+      <c r="U36" s="113"/>
     </row>
     <row r="37" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>11</v>
@@ -5345,28 +5280,26 @@
         <v>44530</v>
       </c>
       <c r="S37" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T37" s="105"/>
-      <c r="U37" s="113">
-        <v>2</v>
-      </c>
+      <c r="U37" s="113"/>
     </row>
     <row r="38" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>11</v>
@@ -5415,28 +5348,26 @@
         <v>44530</v>
       </c>
       <c r="S38" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T38" s="105"/>
-      <c r="U38" s="22">
-        <v>2</v>
-      </c>
+      <c r="U38" s="22"/>
     </row>
     <row r="39" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>11</v>
@@ -5485,28 +5416,26 @@
         <v>44589</v>
       </c>
       <c r="S39" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T39" s="105"/>
-      <c r="U39" s="22">
-        <v>2</v>
-      </c>
+      <c r="U39" s="22"/>
     </row>
     <row r="40" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>11</v>
@@ -5555,28 +5484,26 @@
         <v>44610</v>
       </c>
       <c r="S40" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T40" s="105"/>
-      <c r="U40" s="22">
-        <v>4</v>
-      </c>
+      <c r="U40" s="22"/>
     </row>
     <row r="41" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>11</v>
@@ -5625,28 +5552,26 @@
         <v>44610</v>
       </c>
       <c r="S41" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T41" s="105"/>
-      <c r="U41" s="113">
-        <v>2</v>
-      </c>
+      <c r="U41" s="113"/>
     </row>
     <row r="42" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>11</v>
@@ -5695,28 +5620,26 @@
         <v>44673</v>
       </c>
       <c r="S42" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T42" s="105"/>
-      <c r="U42" s="113">
-        <v>4</v>
-      </c>
+      <c r="U42" s="113"/>
     </row>
     <row r="43" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>11</v>
@@ -5765,28 +5688,26 @@
         <v>44673</v>
       </c>
       <c r="S43" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T43" s="105"/>
-      <c r="U43" s="113">
-        <v>2</v>
-      </c>
+      <c r="U43" s="113"/>
     </row>
     <row r="44" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>11</v>
@@ -5835,28 +5756,26 @@
         <v>44673</v>
       </c>
       <c r="S44" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T44" s="105"/>
-      <c r="U44" s="113">
-        <v>2</v>
-      </c>
+      <c r="U44" s="113"/>
     </row>
     <row r="45" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>11</v>
@@ -5905,28 +5824,26 @@
         <v>44673</v>
       </c>
       <c r="S45" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T45" s="105"/>
-      <c r="U45" s="113">
-        <v>2</v>
-      </c>
+      <c r="U45" s="113"/>
     </row>
     <row r="46" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>11</v>
@@ -5975,28 +5892,26 @@
         <v>44481</v>
       </c>
       <c r="S46" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T46" s="105"/>
-      <c r="U46" s="113">
-        <v>2</v>
-      </c>
+      <c r="U46" s="113"/>
     </row>
     <row r="47" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>11</v>
@@ -6045,28 +5960,26 @@
         <v>44502</v>
       </c>
       <c r="S47" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T47" s="105"/>
-      <c r="U47" s="113">
-        <v>2</v>
-      </c>
+      <c r="U47" s="113"/>
     </row>
     <row r="48" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>11</v>
@@ -6115,28 +6028,26 @@
         <v>44530</v>
       </c>
       <c r="S48" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T48" s="105"/>
-      <c r="U48" s="113">
-        <v>2</v>
-      </c>
+      <c r="U48" s="113"/>
     </row>
     <row r="49" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>11</v>
@@ -6185,28 +6096,26 @@
         <v>44530</v>
       </c>
       <c r="S49" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T49" s="105"/>
-      <c r="U49" s="22">
-        <v>2</v>
-      </c>
+      <c r="U49" s="22"/>
     </row>
     <row r="50" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>11</v>
@@ -6255,28 +6164,26 @@
         <v>44589</v>
       </c>
       <c r="S50" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T50" s="105"/>
-      <c r="U50" s="22">
-        <v>2</v>
-      </c>
+      <c r="U50" s="22"/>
     </row>
     <row r="51" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>11</v>
@@ -6325,28 +6232,26 @@
         <v>44610</v>
       </c>
       <c r="S51" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T51" s="105"/>
-      <c r="U51" s="22">
-        <v>4</v>
-      </c>
+      <c r="U51" s="22"/>
     </row>
     <row r="52" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>11</v>
@@ -6395,28 +6300,26 @@
         <v>44610</v>
       </c>
       <c r="S52" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T52" s="105"/>
-      <c r="U52" s="113">
-        <v>2</v>
-      </c>
+      <c r="U52" s="113"/>
     </row>
     <row r="53" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>11</v>
@@ -6465,28 +6368,26 @@
         <v>44673</v>
       </c>
       <c r="S53" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T53" s="105"/>
-      <c r="U53" s="113">
-        <v>4</v>
-      </c>
+      <c r="U53" s="113"/>
     </row>
     <row r="54" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>11</v>
@@ -6535,28 +6436,26 @@
         <v>44673</v>
       </c>
       <c r="S54" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T54" s="105"/>
-      <c r="U54" s="113">
-        <v>2</v>
-      </c>
+      <c r="U54" s="113"/>
     </row>
     <row r="55" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>11</v>
@@ -6605,28 +6504,26 @@
         <v>44673</v>
       </c>
       <c r="S55" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T55" s="105"/>
-      <c r="U55" s="113">
-        <v>2</v>
-      </c>
+      <c r="U55" s="113"/>
     </row>
     <row r="56" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>11</v>
@@ -6675,28 +6572,26 @@
         <v>44673</v>
       </c>
       <c r="S56" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T56" s="105"/>
-      <c r="U56" s="113">
-        <v>2</v>
-      </c>
+      <c r="U56" s="113"/>
     </row>
     <row r="57" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>11</v>
@@ -6745,28 +6640,26 @@
         <v>44771</v>
       </c>
       <c r="S57" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T57" s="105"/>
-      <c r="U57" s="113">
-        <v>2</v>
-      </c>
+      <c r="U57" s="113"/>
     </row>
     <row r="58" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>11</v>
@@ -6815,28 +6708,26 @@
         <v>44771</v>
       </c>
       <c r="S58" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T58" s="105"/>
-      <c r="U58" s="113">
-        <v>1</v>
-      </c>
+      <c r="U58" s="113"/>
     </row>
     <row r="59" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>11</v>
@@ -6885,14 +6776,12 @@
         <v>44771</v>
       </c>
       <c r="S59" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T59" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="U59" s="113">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="U59" s="113"/>
       <c r="V59" s="151" t="e">
         <v>#N/A</v>
       </c>
@@ -6905,19 +6794,19 @@
     </row>
     <row r="60" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>11</v>
@@ -6966,39 +6855,37 @@
         <v>44880</v>
       </c>
       <c r="S60" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T60" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="U60" s="113">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="U60" s="113"/>
       <c r="V60" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="W60" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="W60" s="151" t="s">
-        <v>172</v>
-      </c>
       <c r="X60" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>11</v>
@@ -7047,28 +6934,26 @@
         <v>44771</v>
       </c>
       <c r="S61" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T61" s="105"/>
-      <c r="U61" s="113">
-        <v>2</v>
-      </c>
+      <c r="U61" s="113"/>
     </row>
     <row r="62" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>11</v>
@@ -7117,28 +7002,26 @@
         <v>44771</v>
       </c>
       <c r="S62" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T62" s="105"/>
-      <c r="U62" s="113">
-        <v>1</v>
-      </c>
+      <c r="U62" s="113"/>
     </row>
     <row r="63" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>11</v>
@@ -7187,14 +7070,12 @@
         <v>44771</v>
       </c>
       <c r="S63" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T63" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="U63" s="113">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="U63" s="113"/>
       <c r="V63" s="151" t="e">
         <v>#N/A</v>
       </c>
@@ -7207,19 +7088,19 @@
     </row>
     <row r="64" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>11</v>
@@ -7268,39 +7149,37 @@
         <v>44880</v>
       </c>
       <c r="S64" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T64" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="U64" s="113">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="U64" s="113"/>
       <c r="V64" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="W64" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="W64" s="151" t="s">
-        <v>172</v>
-      </c>
       <c r="X64" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>11</v>
@@ -7348,16 +7227,14 @@
         <v>44936</v>
       </c>
       <c r="S65" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T65" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="U65" s="113">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="U65" s="113"/>
       <c r="V65" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W65" s="12">
         <v>0</v>
@@ -7368,19 +7245,19 @@
     </row>
     <row r="66" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>11</v>
@@ -7428,14 +7305,12 @@
         <v>44959</v>
       </c>
       <c r="S66" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T66" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="U66" s="113">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="U66" s="113"/>
       <c r="V66" s="12" t="str">
         <f>IF(VLOOKUP($T66,'Havi béradatok'!$B:$E,2,FALSE)=E66,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7451,19 +7326,19 @@
     </row>
     <row r="67" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>11</v>
@@ -7512,28 +7387,26 @@
         <v>44483</v>
       </c>
       <c r="S67" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T67" s="105"/>
-      <c r="U67" s="113">
-        <v>2</v>
-      </c>
+      <c r="U67" s="113"/>
     </row>
     <row r="68" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>11</v>
@@ -7582,28 +7455,26 @@
         <v>44516</v>
       </c>
       <c r="S68" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T68" s="105"/>
-      <c r="U68" s="113">
-        <v>2</v>
-      </c>
+      <c r="U68" s="113"/>
     </row>
     <row r="69" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>11</v>
@@ -7652,28 +7523,26 @@
         <v>44544</v>
       </c>
       <c r="S69" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T69" s="105"/>
-      <c r="U69" s="113">
-        <v>2</v>
-      </c>
+      <c r="U69" s="113"/>
     </row>
     <row r="70" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>11</v>
@@ -7722,28 +7591,26 @@
         <v>44564</v>
       </c>
       <c r="S70" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T70" s="105"/>
-      <c r="U70" s="22">
-        <v>2</v>
-      </c>
+      <c r="U70" s="22"/>
     </row>
     <row r="71" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>11</v>
@@ -7792,28 +7659,26 @@
         <v>44601</v>
       </c>
       <c r="S71" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T71" s="105"/>
-      <c r="U71" s="22">
-        <v>2</v>
-      </c>
+      <c r="U71" s="22"/>
     </row>
     <row r="72" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>11</v>
@@ -7862,28 +7727,26 @@
         <v>44601</v>
       </c>
       <c r="S72" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T72" s="105"/>
-      <c r="U72" s="22">
-        <v>4</v>
-      </c>
+      <c r="U72" s="22"/>
     </row>
     <row r="73" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>11</v>
@@ -7931,28 +7794,26 @@
         <v>44651</v>
       </c>
       <c r="S73" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T73" s="105"/>
-      <c r="U73" s="113">
-        <v>2</v>
-      </c>
+      <c r="U73" s="113"/>
     </row>
     <row r="74" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>11</v>
@@ -8000,28 +7861,26 @@
         <v>44651</v>
       </c>
       <c r="S74" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T74" s="105"/>
-      <c r="U74" s="113">
-        <v>4</v>
-      </c>
+      <c r="U74" s="113"/>
     </row>
     <row r="75" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>11</v>
@@ -8069,28 +7928,26 @@
         <v>44728</v>
       </c>
       <c r="S75" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T75" s="105"/>
-      <c r="U75" s="113">
-        <v>2</v>
-      </c>
+      <c r="U75" s="113"/>
     </row>
     <row r="76" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>11</v>
@@ -8138,28 +7995,26 @@
         <v>44743</v>
       </c>
       <c r="S76" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T76" s="105"/>
-      <c r="U76" s="113">
-        <v>2</v>
-      </c>
+      <c r="U76" s="113"/>
     </row>
     <row r="77" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>11</v>
@@ -8208,28 +8063,26 @@
         <v>44743</v>
       </c>
       <c r="S77" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T77" s="105"/>
-      <c r="U77" s="113">
-        <v>2</v>
-      </c>
+      <c r="U77" s="113"/>
     </row>
     <row r="78" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>11</v>
@@ -8277,28 +8130,26 @@
         <v>44789</v>
       </c>
       <c r="S78" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T78" s="105"/>
-      <c r="U78" s="113">
-        <v>2</v>
-      </c>
+      <c r="U78" s="113"/>
     </row>
     <row r="79" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>11</v>
@@ -8346,28 +8197,26 @@
         <v>44789</v>
       </c>
       <c r="S79" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T79" s="105"/>
-      <c r="U79" s="113">
-        <v>1</v>
-      </c>
+      <c r="U79" s="113"/>
     </row>
     <row r="80" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>11</v>
@@ -8415,14 +8264,12 @@
         <v>44789</v>
       </c>
       <c r="S80" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T80" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="U80" s="113">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="U80" s="113"/>
       <c r="V80" s="151" t="e">
         <v>#N/A</v>
       </c>
@@ -8435,19 +8282,19 @@
     </row>
     <row r="81" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>11</v>
@@ -8495,39 +8342,37 @@
         <v>44789</v>
       </c>
       <c r="S81" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T81" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="U81" s="113">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="U81" s="113"/>
       <c r="V81" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="W81" s="162" t="s">
         <v>171</v>
       </c>
-      <c r="W81" s="162" t="s">
-        <v>172</v>
-      </c>
       <c r="X81" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>11</v>
@@ -8576,16 +8421,14 @@
         <v>44944</v>
       </c>
       <c r="S82" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T82" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="U82" s="113">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="U82" s="113"/>
       <c r="V82" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W82" s="12">
         <v>0</v>
@@ -8596,19 +8439,19 @@
     </row>
     <row r="83" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>11</v>
@@ -8657,14 +8500,12 @@
         <v>44944</v>
       </c>
       <c r="S83" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T83" s="105" t="s">
-        <v>157</v>
-      </c>
-      <c r="U83" s="113">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="U83" s="113"/>
       <c r="V83" s="12" t="str">
         <f>IF(VLOOKUP($T83,'Havi béradatok'!$B:$E,2,FALSE)=E83,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8680,19 +8521,19 @@
     </row>
     <row r="84" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>11</v>
@@ -8741,28 +8582,26 @@
         <v>44481</v>
       </c>
       <c r="S84" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T84" s="105"/>
-      <c r="U84" s="113">
-        <v>2</v>
-      </c>
+      <c r="U84" s="113"/>
     </row>
     <row r="85" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>11</v>
@@ -8810,28 +8649,26 @@
         <v>44509</v>
       </c>
       <c r="S85" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T85" s="105"/>
-      <c r="U85" s="113">
-        <v>2</v>
-      </c>
+      <c r="U85" s="113"/>
     </row>
     <row r="86" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>11</v>
@@ -8880,28 +8717,26 @@
         <v>44530</v>
       </c>
       <c r="S86" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T86" s="105"/>
-      <c r="U86" s="113">
-        <v>2</v>
-      </c>
+      <c r="U86" s="113"/>
     </row>
     <row r="87" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>11</v>
@@ -8950,28 +8785,26 @@
         <v>44530</v>
       </c>
       <c r="S87" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T87" s="105"/>
-      <c r="U87" s="22">
-        <v>2</v>
-      </c>
+      <c r="U87" s="22"/>
     </row>
     <row r="88" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>11</v>
@@ -9020,28 +8853,26 @@
         <v>44599</v>
       </c>
       <c r="S88" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T88" s="105"/>
-      <c r="U88" s="22">
-        <v>2</v>
-      </c>
+      <c r="U88" s="22"/>
     </row>
     <row r="89" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>11</v>
@@ -9090,28 +8921,26 @@
         <v>44621</v>
       </c>
       <c r="S89" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T89" s="105"/>
-      <c r="U89" s="22">
-        <v>4</v>
-      </c>
+      <c r="U89" s="22"/>
     </row>
     <row r="90" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>11</v>
@@ -9160,28 +8989,26 @@
         <v>44621</v>
       </c>
       <c r="S90" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T90" s="105"/>
-      <c r="U90" s="113">
-        <v>2</v>
-      </c>
+      <c r="U90" s="113"/>
     </row>
     <row r="91" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>11</v>
@@ -9230,28 +9057,26 @@
         <v>44673</v>
       </c>
       <c r="S91" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T91" s="105"/>
-      <c r="U91" s="113">
-        <v>4</v>
-      </c>
+      <c r="U91" s="113"/>
     </row>
     <row r="92" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>11</v>
@@ -9300,28 +9125,26 @@
         <v>44725</v>
       </c>
       <c r="S92" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T92" s="105"/>
-      <c r="U92" s="113">
-        <v>2</v>
-      </c>
+      <c r="U92" s="113"/>
     </row>
     <row r="93" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>11</v>
@@ -9370,28 +9193,26 @@
         <v>44753</v>
       </c>
       <c r="S93" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T93" s="105"/>
-      <c r="U93" s="113">
-        <v>2</v>
-      </c>
+      <c r="U93" s="113"/>
     </row>
     <row r="94" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>11</v>
@@ -9440,28 +9261,26 @@
         <v>44753</v>
       </c>
       <c r="S94" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T94" s="105"/>
-      <c r="U94" s="113">
-        <v>2</v>
-      </c>
+      <c r="U94" s="113"/>
     </row>
     <row r="95" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>11</v>
@@ -9510,28 +9329,26 @@
         <v>44481</v>
       </c>
       <c r="S95" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T95" s="105"/>
-      <c r="U95" s="113">
-        <v>2</v>
-      </c>
+      <c r="U95" s="113"/>
     </row>
     <row r="96" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>11</v>
@@ -9580,28 +9397,26 @@
         <v>44509</v>
       </c>
       <c r="S96" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T96" s="105"/>
-      <c r="U96" s="113">
-        <v>2</v>
-      </c>
+      <c r="U96" s="113"/>
     </row>
     <row r="97" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>11</v>
@@ -9650,28 +9465,26 @@
         <v>44530</v>
       </c>
       <c r="S97" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T97" s="105"/>
-      <c r="U97" s="113">
-        <v>2</v>
-      </c>
+      <c r="U97" s="113"/>
     </row>
     <row r="98" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>11</v>
@@ -9720,28 +9533,26 @@
         <v>44530</v>
       </c>
       <c r="S98" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T98" s="105"/>
-      <c r="U98" s="22">
-        <v>2</v>
-      </c>
+      <c r="U98" s="22"/>
     </row>
     <row r="99" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>11</v>
@@ -9790,28 +9601,26 @@
         <v>44599</v>
       </c>
       <c r="S99" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T99" s="105"/>
-      <c r="U99" s="22">
-        <v>2</v>
-      </c>
+      <c r="U99" s="22"/>
     </row>
     <row r="100" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>11</v>
@@ -9860,28 +9669,26 @@
         <v>44621</v>
       </c>
       <c r="S100" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T100" s="105"/>
-      <c r="U100" s="22">
-        <v>4</v>
-      </c>
+      <c r="U100" s="22"/>
     </row>
     <row r="101" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>11</v>
@@ -9930,28 +9737,26 @@
         <v>44621</v>
       </c>
       <c r="S101" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T101" s="105"/>
-      <c r="U101" s="113">
-        <v>2</v>
-      </c>
+      <c r="U101" s="113"/>
     </row>
     <row r="102" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>11</v>
@@ -10000,28 +9805,26 @@
         <v>44673</v>
       </c>
       <c r="S102" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T102" s="105"/>
-      <c r="U102" s="113">
-        <v>4</v>
-      </c>
+      <c r="U102" s="113"/>
     </row>
     <row r="103" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>11</v>
@@ -10070,28 +9873,26 @@
         <v>44725</v>
       </c>
       <c r="S103" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T103" s="105"/>
-      <c r="U103" s="113">
-        <v>2</v>
-      </c>
+      <c r="U103" s="113"/>
     </row>
     <row r="104" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>11</v>
@@ -10140,28 +9941,26 @@
         <v>44753</v>
       </c>
       <c r="S104" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T104" s="105"/>
-      <c r="U104" s="113">
-        <v>2</v>
-      </c>
+      <c r="U104" s="113"/>
     </row>
     <row r="105" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>11</v>
@@ -10210,28 +10009,26 @@
         <v>44753</v>
       </c>
       <c r="S105" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T105" s="105"/>
-      <c r="U105" s="113">
-        <v>2</v>
-      </c>
+      <c r="U105" s="113"/>
     </row>
     <row r="106" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>11</v>
@@ -10280,28 +10077,26 @@
         <v>44788</v>
       </c>
       <c r="S106" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T106" s="105"/>
-      <c r="U106" s="113">
-        <v>2</v>
-      </c>
+      <c r="U106" s="113"/>
     </row>
     <row r="107" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>11</v>
@@ -10350,28 +10145,26 @@
         <v>44788</v>
       </c>
       <c r="S107" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T107" s="105"/>
-      <c r="U107" s="113">
-        <v>1</v>
-      </c>
+      <c r="U107" s="113"/>
     </row>
     <row r="108" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>11</v>
@@ -10420,14 +10213,12 @@
         <v>44852</v>
       </c>
       <c r="S108" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T108" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="U108" s="113">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="U108" s="113"/>
       <c r="V108" s="151" t="e">
         <v>#N/A</v>
       </c>
@@ -10440,19 +10231,19 @@
     </row>
     <row r="109" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>11</v>
@@ -10501,39 +10292,37 @@
         <v>44852</v>
       </c>
       <c r="S109" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T109" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="U109" s="113">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="U109" s="113"/>
       <c r="V109" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="W109" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="W109" s="151" t="s">
-        <v>172</v>
-      </c>
       <c r="X109" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>11</v>
@@ -10581,28 +10370,26 @@
         <v>44753</v>
       </c>
       <c r="S110" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T110" s="105"/>
-      <c r="U110" s="113">
-        <v>2</v>
-      </c>
+      <c r="U110" s="113"/>
     </row>
     <row r="111" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>11</v>
@@ -10651,28 +10438,26 @@
         <v>44753</v>
       </c>
       <c r="S111" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T111" s="105"/>
-      <c r="U111" s="113">
-        <v>2</v>
-      </c>
+      <c r="U111" s="113"/>
     </row>
     <row r="112" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>11</v>
@@ -10721,28 +10506,26 @@
         <v>44788</v>
       </c>
       <c r="S112" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T112" s="105"/>
-      <c r="U112" s="113">
-        <v>2</v>
-      </c>
+      <c r="U112" s="113"/>
     </row>
     <row r="113" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>11</v>
@@ -10791,28 +10574,26 @@
         <v>44788</v>
       </c>
       <c r="S113" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T113" s="105"/>
-      <c r="U113" s="113">
-        <v>1</v>
-      </c>
+      <c r="U113" s="113"/>
     </row>
     <row r="114" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>11</v>
@@ -10861,14 +10642,12 @@
         <v>44852</v>
       </c>
       <c r="S114" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T114" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="U114" s="113">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="U114" s="113"/>
       <c r="V114" s="151" t="e">
         <v>#N/A</v>
       </c>
@@ -10881,19 +10660,19 @@
     </row>
     <row r="115" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>11</v>
@@ -10942,39 +10721,37 @@
         <v>44852</v>
       </c>
       <c r="S115" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T115" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="U115" s="113">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="U115" s="113"/>
       <c r="V115" s="151" t="s">
+        <v>170</v>
+      </c>
+      <c r="W115" s="151" t="s">
         <v>171</v>
       </c>
-      <c r="W115" s="151" t="s">
-        <v>172</v>
-      </c>
       <c r="X115" s="151" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>11</v>
@@ -11022,16 +10799,14 @@
         <v>44936</v>
       </c>
       <c r="S116" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T116" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="U116" s="113">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="U116" s="113"/>
       <c r="V116" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W116" s="12">
         <v>0</v>
@@ -11042,19 +10817,19 @@
     </row>
     <row r="117" spans="1:24" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>11</v>
@@ -11102,14 +10877,12 @@
         <v>44936</v>
       </c>
       <c r="S117" s="105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T117" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="U117" s="113">
-        <v>1</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="U117" s="113"/>
       <c r="V117" s="12" t="str">
         <f>IF(VLOOKUP($T117,'Havi béradatok'!$B:$E,2,FALSE)=E117,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -11569,7 +11342,7 @@
     </row>
     <row r="133" spans="1:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B133" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F133" s="24" t="s">
         <v>11</v>
@@ -11584,7 +11357,7 @@
     </row>
     <row r="134" spans="1:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B134" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F134" s="24" t="s">
         <v>15</v>
@@ -11599,7 +11372,7 @@
     </row>
     <row r="135" spans="1:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B135" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K135" s="29"/>
       <c r="L135" s="32"/>
@@ -11611,7 +11384,7 @@
     </row>
     <row r="136" spans="1:21" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B136" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K136" s="29"/>
       <c r="L136" s="32"/>
@@ -11992,7 +11765,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="22"/>
@@ -12002,7 +11775,7 @@
     </row>
     <row r="2" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="22"/>
@@ -12012,7 +11785,7 @@
     </row>
     <row r="3" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="22"/>
@@ -12020,7 +11793,7 @@
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="22"/>
@@ -12028,7 +11801,7 @@
     </row>
     <row r="5" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="22"/>
@@ -12036,7 +11809,7 @@
     </row>
     <row r="6" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="22"/>
@@ -12044,7 +11817,7 @@
     </row>
     <row r="7" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="22"/>
@@ -12052,7 +11825,7 @@
     </row>
     <row r="8" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="22"/>
@@ -12060,7 +11833,7 @@
     </row>
     <row r="9" spans="1:9" s="24" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="22"/>
@@ -12083,7 +11856,7 @@
     </row>
     <row r="13" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12106,7 +11879,7 @@
         <v>6</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="55" t="s">
         <v>14</v>
@@ -12118,16 +11891,16 @@
     <row r="15" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="F15" s="44">
         <v>1221806</v>
@@ -12142,16 +11915,16 @@
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>101</v>
-      </c>
       <c r="E16" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" s="44">
         <v>407268</v>
@@ -12166,16 +11939,16 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
         <v>104</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
       </c>
       <c r="F17" s="22">
         <v>439851</v>
@@ -12190,16 +11963,16 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="22">
         <v>70948</v>
@@ -12212,21 +11985,21 @@
         <v>11</v>
       </c>
       <c r="I18" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="22">
         <v>6457</v>
@@ -12239,21 +12012,21 @@
         <v>11</v>
       </c>
       <c r="I19" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>5100002723</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F20" s="22">
         <v>107079</v>
@@ -12266,21 +12039,21 @@
         <v>11</v>
       </c>
       <c r="I20" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21">
         <v>5100002731</v>
       </c>
       <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" t="s">
         <v>118</v>
-      </c>
-      <c r="E21" t="s">
-        <v>119</v>
       </c>
       <c r="F21" s="22">
         <v>2205</v>
@@ -12293,21 +12066,21 @@
         <v>11</v>
       </c>
       <c r="I21" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>5100002733</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" s="22">
         <v>124032</v>
@@ -12320,21 +12093,21 @@
         <v>11</v>
       </c>
       <c r="I22" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="22">
         <v>70948</v>
@@ -12347,21 +12120,21 @@
         <v>11</v>
       </c>
       <c r="I23" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="22">
         <v>6457</v>
@@ -12374,21 +12147,21 @@
         <v>11</v>
       </c>
       <c r="I24" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="22">
         <v>21577</v>
@@ -12401,21 +12174,21 @@
         <v>11</v>
       </c>
       <c r="I25" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="22">
         <v>6150</v>
@@ -12428,21 +12201,21 @@
         <v>11</v>
       </c>
       <c r="I26" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>5100002730</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="22">
         <v>2627</v>
@@ -12455,21 +12228,21 @@
         <v>11</v>
       </c>
       <c r="I27" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="22">
         <v>99626</v>
@@ -12482,21 +12255,21 @@
         <v>11</v>
       </c>
       <c r="I28" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
         <v>128</v>
       </c>
-      <c r="D29" t="s">
-        <v>129</v>
-      </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="22">
         <v>9065</v>
@@ -12509,21 +12282,21 @@
         <v>11</v>
       </c>
       <c r="I29" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>5100007113</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F30" s="22">
         <v>3025</v>
@@ -12536,21 +12309,21 @@
         <v>11</v>
       </c>
       <c r="I30" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>5100005936</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="22">
         <v>162792</v>
@@ -12563,21 +12336,21 @@
         <v>11</v>
       </c>
       <c r="I31" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>5100005785</v>
       </c>
       <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
         <v>131</v>
-      </c>
-      <c r="E32" t="s">
-        <v>132</v>
       </c>
       <c r="F32" s="22">
         <v>132040</v>
@@ -12590,21 +12363,21 @@
         <v>11</v>
       </c>
       <c r="I32" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="22">
         <v>99626</v>
@@ -12617,21 +12390,21 @@
         <v>11</v>
       </c>
       <c r="I33" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="22">
         <v>9065</v>
@@ -12644,21 +12417,21 @@
         <v>11</v>
       </c>
       <c r="I34" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35">
         <v>5100007112</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35" s="22">
         <v>2975</v>
@@ -12671,21 +12444,21 @@
         <v>11</v>
       </c>
       <c r="I35" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>5100006362</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F36" s="22">
         <v>3283</v>
@@ -12698,21 +12471,21 @@
         <v>11</v>
       </c>
       <c r="I36" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>5100006832</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" s="22">
         <v>2376</v>
@@ -12725,21 +12498,21 @@
         <v>11</v>
       </c>
       <c r="I37" s="146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" t="s">
-        <v>141</v>
       </c>
       <c r="F38" s="22">
         <v>81146</v>
@@ -12752,21 +12525,21 @@
         <v>11</v>
       </c>
       <c r="I38" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="22">
         <v>7384</v>
@@ -12779,21 +12552,21 @@
         <v>11</v>
       </c>
       <c r="I39" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="22">
         <v>5950</v>
@@ -12806,21 +12579,21 @@
         <v>11</v>
       </c>
       <c r="I40" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41">
         <v>5100010297</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" s="22">
         <v>200051</v>
@@ -12833,21 +12606,21 @@
         <v>11</v>
       </c>
       <c r="I41" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>5100010244</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42" s="22">
         <v>3837</v>
@@ -12860,21 +12633,21 @@
         <v>11</v>
       </c>
       <c r="I42" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" t="s">
         <v>144</v>
       </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F43" s="22">
         <v>81146</v>
@@ -12887,21 +12660,21 @@
         <v>11</v>
       </c>
       <c r="I43" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" t="s">
         <v>144</v>
       </c>
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="22">
         <v>7384</v>
@@ -12914,21 +12687,21 @@
         <v>11</v>
       </c>
       <c r="I44" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
         <v>144</v>
       </c>
-      <c r="D45" t="s">
-        <v>145</v>
-      </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" s="22">
         <v>6050</v>
@@ -12941,21 +12714,21 @@
         <v>11</v>
       </c>
       <c r="I45" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>5100010296</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" s="22">
         <v>222681</v>
@@ -12968,21 +12741,21 @@
         <v>11</v>
       </c>
       <c r="I46" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47">
         <v>5100010309</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47" s="22">
         <v>42909</v>
@@ -12995,21 +12768,21 @@
         <v>11</v>
       </c>
       <c r="I47" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48">
         <v>5100010254</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F48" s="22">
         <v>2627</v>
@@ -13022,7 +12795,7 @@
         <v>11</v>
       </c>
       <c r="I48" s="146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -13176,7 +12949,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -13184,21 +12957,21 @@
         <v>22</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="E3" s="124" t="s">
         <v>55</v>
-      </c>
-      <c r="E3" s="124" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="69">
         <v>6000</v>
@@ -13216,7 +12989,7 @@
         <v>3159.8836388284799</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="97">
         <f>SUMIFS(Bérköltség!$L$6:$L$130,Bérköltség!$F$6:$F$130,"Tény")+SUMIFS(Bérköltség!$M$6:$M$130,Bérköltség!$F$6:$F$130,"Tény")+SUMIFS(Dologi_Felhalm.!$F$15:$F$57,Dologi_Felhalm.!H15:H57,"Tény")</f>
@@ -13225,7 +12998,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="69">
         <v>5920</v>
@@ -13243,7 +13016,7 @@
         <v>-151.2768661564096</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5" s="97">
         <f>SUMIFS(Bérköltség!$L$6:$L$130,Bérköltség!$F$6:$F$130,"Köt. váll.")+SUMIFS(Bérköltség!$M$6:$M$130,Bérköltség!$F$6:$F$130,"Köt. váll.")+SUMIFS(Dologi_Felhalm.!$F$15:$F$57,Dologi_Felhalm.!H16:H58,"Köt. váll.")</f>
@@ -13252,7 +13025,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="69">
         <v>4990</v>
@@ -13272,7 +13045,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="69">
         <v>10445</v>
@@ -13292,7 +13065,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="69">
         <v>3450</v>
@@ -13312,7 +13085,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="69">
         <v>7000</v>
@@ -13332,7 +13105,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="69">
         <v>700</v>
@@ -13352,7 +13125,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="69">
         <v>3510</v>
@@ -13372,7 +13145,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="69">
         <v>1170</v>
@@ -13420,7 +13193,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="73">
         <f>B14*B19</f>
@@ -13432,7 +13205,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="66">
         <v>33612</v>
@@ -13443,7 +13216,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="64">
         <v>44424</v>
@@ -13451,16 +13224,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>354.07</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -13473,7 +13246,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="121">
         <f>Bérköltség!L131+Bérköltség!M131+Dologi_Felhalm.!F58</f>
@@ -13482,7 +13255,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="118">
         <f>Bérköltség!N131+Dologi_Felhalm.!G58</f>
@@ -13494,7 +13267,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="120">
         <f>B14-B25</f>
@@ -13519,122 +13292,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -13657,30 +13430,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="156" t="s">
+      <c r="C1" s="156" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="156" t="s">
-        <v>166</v>
-      </c>
       <c r="D1" s="156" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="156" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="156" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="159">
         <v>553943</v>
@@ -13691,13 +13464,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="158" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D3" s="159">
         <v>759972</v>
@@ -13708,13 +13481,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="167" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="159">
         <v>718207</v>
@@ -13725,13 +13498,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="158" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" s="157" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="158" t="s">
-        <v>111</v>
       </c>
       <c r="D5" s="159">
         <v>778800</v>
@@ -13742,13 +13515,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" s="157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="159">
         <v>715090</v>
